--- a/C9200L-24T-4G-E_VI.xlsx
+++ b/C9200L-24T-4G-E_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specssssss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF9CBB-2E38-482E-BF25-ACC22B1B0DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97195A8A-0CA6-4B52-A399-3DECE924D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{51B3BCB1-5D1C-4CB5-9267-92741372EB39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>TT</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Model-driven telemetry, sampled NetFlow, SPAN, RSPAN</t>
   </si>
   <si>
-    <t>2 quạt cố định</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
     <t>16,000</t>
   </si>
   <si>
-    <t>PWR-C5-125WAC: 125W AC Config 5 Power Supply</t>
-  </si>
-  <si>
-    <t>100 to 240 VAC,50 to 60 Hz</t>
-  </si>
-  <si>
-    <t>12 tháng</t>
-  </si>
-  <si>
     <t>56 Gbps</t>
   </si>
   <si>
@@ -213,13 +201,13 @@
     <t>Hỗ trợ nguồn phu có thể tháo rời</t>
   </si>
   <si>
-    <t>Bảo hành phần cứng</t>
-  </si>
-  <si>
-    <t>Quạt</t>
-  </si>
-  <si>
     <t>Điện áp đầu vào</t>
+  </si>
+  <si>
+    <t>1 nguồn chính mặc định</t>
+  </si>
+  <si>
+    <t>100 to 240 VAC,50 to 60 Hz đối với nguồn AC</t>
   </si>
 </sst>
 </file>
@@ -374,12 +362,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,12 +384,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -416,6 +392,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,11 +719,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7CD59-405A-495E-B131-AF7928D308BC}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -759,297 +745,279 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="13">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>30</v>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="33.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
-      <c r="B34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
+    <row r="32" spans="1:3" ht="33.6" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
